--- a/单词发音解析.xlsx
+++ b/单词发音解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE09B419-89F7-864F-A74C-53CB93522B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E002C44-98DC-364C-8DA2-D0E05226E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="25600" windowHeight="13520" tabRatio="708" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="25600" windowHeight="13520" tabRatio="708" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -39,20 +39,29 @@
     <sheet name="R" sheetId="16" r:id="rId24"/>
     <sheet name="S" sheetId="7" r:id="rId25"/>
     <sheet name="T" sheetId="5" r:id="rId26"/>
-    <sheet name="V" sheetId="13" r:id="rId27"/>
-    <sheet name="W" sheetId="26" r:id="rId28"/>
+    <sheet name="U" sheetId="33" r:id="rId27"/>
+    <sheet name="V" sheetId="13" r:id="rId28"/>
+    <sheet name="W" sheetId="26" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1716">
   <si>
     <t>音标</t>
   </si>
@@ -5616,12 +5625,190 @@
       <t>gi an</t>
     </r>
   </si>
+  <si>
+    <t>steward--</t>
+  </si>
+  <si>
+    <t>/stjuːəd--/</t>
+  </si>
+  <si>
+    <t>lounge</t>
+  </si>
+  <si>
+    <r>
+      <t>/l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>aʊ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ndʒ/</t>
+    </r>
+  </si>
+  <si>
+    <t>au 发 ɔː</t>
+  </si>
+  <si>
+    <t>--titative</t>
+  </si>
+  <si>
+    <t>quantitative</t>
+  </si>
+  <si>
+    <t>/ ti  tə  tiv /  发三个音节， 但重音在前一个音节上</t>
+  </si>
+  <si>
+    <t>--oun</t>
+  </si>
+  <si>
+    <t>--our</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>/ˈriːsɔːrs/</t>
+  </si>
+  <si>
+    <t>oun 发aun ,</t>
+  </si>
+  <si>
+    <t>our 发 ɔːr</t>
+  </si>
+  <si>
+    <t>antiquarian</t>
+  </si>
+  <si>
+    <t>/ˌæntɪˈkweriən/</t>
+  </si>
+  <si>
+    <t>qua的发音 kwe</t>
+  </si>
+  <si>
+    <t>-qua</t>
+  </si>
+  <si>
+    <t>--gue</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>/--g/</t>
+  </si>
+  <si>
+    <t>/kɔːr/</t>
+  </si>
+  <si>
+    <t>--tial</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>/..ʃ(ə)l/</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>ˈfriːkwənsi/</t>
+  </si>
+  <si>
+    <t>-cy  结尾用 si</t>
+  </si>
+  <si>
+    <t>frequence</t>
+  </si>
+  <si>
+    <t>ˈfriːkwəns /</t>
+  </si>
+  <si>
+    <t>-ce 结尾用 s</t>
+  </si>
+  <si>
+    <t>--uise</t>
+  </si>
+  <si>
+    <t>cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/--ru:s/ </t>
+  </si>
+  <si>
+    <t>不是发kwi的音</t>
+  </si>
+  <si>
+    <t>巡航，航线，航行</t>
+  </si>
+  <si>
+    <t>interpertation</t>
+  </si>
+  <si>
+    <t>解释 说明 n</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> /ɪn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.tɜr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prə'teɪʃ(ə)n/ </t>
+    </r>
+  </si>
+  <si>
+    <t>--inter</t>
+  </si>
+  <si>
+    <t>次中音在ter上, 不是 inter -pretation, 而是 in-ter pre-tation</t>
+  </si>
+  <si>
+    <t>technic</t>
+  </si>
+  <si>
+    <t>重音在前一个音节</t>
+  </si>
+  <si>
+    <t>/ˈteknɪk/</t>
+  </si>
+  <si>
+    <t>/ tek'nɪ:k/</t>
+  </si>
+  <si>
+    <t>que 单独算一个音节， 也在前一个音节上</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5683,6 +5870,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5704,7 +5896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -5796,6 +5988,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6100,7 +6295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D127"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6293,7 +6488,7 @@
       <c r="B35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="35" t="s">
         <v>315</v>
       </c>
     </row>
@@ -6301,109 +6496,109 @@
       <c r="B36" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="35"/>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C37" s="34"/>
+      <c r="C37" s="35"/>
     </row>
     <row r="38" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="C38" s="34"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="C39" s="34"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="34"/>
+      <c r="C40" s="35"/>
     </row>
     <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="34"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="34"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C44" s="34"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="35"/>
     </row>
     <row r="46" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C46" s="34"/>
+      <c r="C46" s="35"/>
     </row>
     <row r="47" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C47" s="34"/>
+      <c r="C47" s="35"/>
     </row>
     <row r="48" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C48" s="34"/>
+      <c r="C48" s="35"/>
     </row>
     <row r="49" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C49" s="34"/>
+      <c r="C49" s="35"/>
     </row>
     <row r="50" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C50" s="34"/>
+      <c r="C50" s="35"/>
     </row>
     <row r="51" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C51" s="34"/>
+      <c r="C51" s="35"/>
     </row>
     <row r="52" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="C52" s="34"/>
+      <c r="C52" s="35"/>
     </row>
     <row r="53" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="C53" s="34"/>
+      <c r="C53" s="35"/>
     </row>
     <row r="54" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
@@ -6427,7 +6622,7 @@
       <c r="B58" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="36" t="s">
         <v>715</v>
       </c>
     </row>
@@ -6435,7 +6630,7 @@
       <c r="B59" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="35"/>
+      <c r="C59" s="36"/>
     </row>
     <row r="60" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
@@ -7337,10 +7532,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7385,7 +7580,7 @@
       <c r="C2" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7396,7 +7591,7 @@
       <c r="C3" s="23" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -7427,6 +7622,17 @@
       </c>
       <c r="F6" s="3" t="s">
         <v>1230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1690</v>
       </c>
     </row>
   </sheetData>
@@ -7530,17 +7736,17 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="47.5" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7720,6 +7926,23 @@
       </c>
       <c r="E18" t="s">
         <v>1313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1707</v>
       </c>
     </row>
   </sheetData>
@@ -7900,7 +8123,7 @@
       <c r="C2" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7908,7 +8131,7 @@
       <c r="C3" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
@@ -8202,7 +8425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -8325,7 +8548,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="37" t="s">
         <v>943</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -8333,19 +8556,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="36"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="3" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="36"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="3" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="36"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="3" t="s">
         <v>948</v>
       </c>
@@ -8634,7 +8857,7 @@
       <c r="C2" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="36" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8645,7 +8868,7 @@
       <c r="C3" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="36"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
@@ -8666,10 +8889,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8783,6 +9006,50 @@
       </c>
       <c r="D8" s="9" t="s">
         <v>1471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1691</v>
       </c>
     </row>
   </sheetData>
@@ -9014,10 +9281,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9076,6 +9343,20 @@
       </c>
       <c r="D3" t="s">
         <v>1431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1686</v>
       </c>
     </row>
   </sheetData>
@@ -9132,7 +9413,7 @@
       <c r="C2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>176</v>
       </c>
     </row>
@@ -9140,7 +9421,7 @@
       <c r="C3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -9248,7 +9529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -9504,10 +9785,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9750,6 +10031,39 @@
         <v>1646</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9757,6 +10071,67 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D136FC-C914-D441-87B5-9A5195970599}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1703</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -9838,7 +10213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -9899,10 +10274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10024,6 +10399,14 @@
         <v>1457</v>
       </c>
     </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10032,10 +10415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10503,7 +10886,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="38" t="s">
         <v>596</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -10514,7 +10897,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="3" t="s">
         <v>597</v>
       </c>
@@ -11469,7 +11852,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="4" t="s">
         <v>562</v>
       </c>
@@ -11480,7 +11863,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="178" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12" t="s">
         <v>665</v>
       </c>
@@ -11491,7 +11874,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
         <v>689</v>
       </c>
@@ -11502,7 +11885,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="4" t="s">
         <v>717</v>
       </c>
@@ -11513,7 +11896,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>864</v>
       </c>
@@ -11524,529 +11907,540 @@
         <v>866</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="3" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="3" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B190" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C190" s="3" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A191" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B191" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C191" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="6" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B192" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="6" t="s">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B194" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B195" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C195" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B196" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="192" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="17" t="s">
+    <row r="197" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B197" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C197" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D192" s="13" t="s">
+      <c r="D197" s="13" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="15" t="s">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B198" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C198" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="15" t="s">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="15" t="s">
         <v>593</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B199" s="3" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="15" t="s">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B200" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C200" s="3" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="15" t="s">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="15" t="s">
         <v>867</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B201" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C201" s="3" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="15" t="s">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B202" s="3" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="15"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="15"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="15"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="15"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4" t="s">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B206" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B208" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C208" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="3" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B209" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C209" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="3" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B210" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C210" s="3" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="4" t="s">
-        <v>833</v>
+        <v>258</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>842</v>
+        <v>259</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="4" t="s">
-        <v>600</v>
+        <v>506</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>594</v>
+        <v>510</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B218" s="3" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="3" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="3" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B221" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="3" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
         <v>1663</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B222" s="3" t="s">
         <v>1664</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="3" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B223" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C223" s="3" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
         <v>1665</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B224" s="3" t="s">
         <v>1666</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B225" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C225" s="3" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B226" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C226" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4"/>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4"/>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4"/>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B228" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="C228" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="B229" s="5" t="s">
-        <v>815</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>813</v>
-      </c>
+      <c r="A227" s="4"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="3" t="s">
-        <v>755</v>
-      </c>
+      <c r="A230" s="4"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
-        <v>756</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>758</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>757</v>
+        <v>108</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
-        <v>772</v>
+      <c r="A232" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="B234" s="3" t="s">
-        <v>770</v>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B233" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>784</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B239" s="13" t="s">
-        <v>262</v>
+        <v>774</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>121</v>
+        <v>783</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>515</v>
+        <v>784</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B244" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B248" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C248" s="3" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="4" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B255" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B251" s="3" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B256" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A252" s="3" t="s">
+    <row r="257" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B257" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="C252" s="5" t="s">
+      <c r="C257" s="5" t="s">
         <v>644</v>
       </c>
     </row>
@@ -14040,8 +14434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14427,12 +14821,12 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14570,7 +14964,7 @@
       <c r="C9" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="39" t="s">
         <v>377</v>
       </c>
     </row>
@@ -14581,7 +14975,7 @@
       <c r="C10" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="38"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
@@ -14590,7 +14984,7 @@
       <c r="C11" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D11" s="38"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
@@ -14599,7 +14993,7 @@
       <c r="C12" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
@@ -14696,7 +15090,7 @@
       <c r="C26" s="9" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>893</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -14710,7 +15104,7 @@
       <c r="C27" s="9" t="s">
         <v>891</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="10" t="s">
         <v>892</v>
       </c>
@@ -14913,7 +15307,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>1647</v>
       </c>
@@ -14921,12 +15315,40 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
         <v>1648</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>1649</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>1699</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>

--- a/单词发音解析.xlsx
+++ b/单词发音解析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Richie/Github/EnglishSummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E002C44-98DC-364C-8DA2-D0E05226E8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C95B2-FDEA-D847-B1D0-D813BDB84F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1060" windowWidth="25600" windowHeight="13520" tabRatio="708" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="500" windowWidth="25600" windowHeight="13480" tabRatio="708" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普遍规律" sheetId="8" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="U" sheetId="33" r:id="rId27"/>
     <sheet name="V" sheetId="13" r:id="rId28"/>
     <sheet name="W" sheetId="26" r:id="rId29"/>
+    <sheet name="Y" sheetId="35" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="1716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1746">
   <si>
     <t>音标</t>
   </si>
@@ -5802,6 +5803,106 @@
   </si>
   <si>
     <t>que 单独算一个音节， 也在前一个音节上</t>
+  </si>
+  <si>
+    <t>myocardium</t>
+  </si>
+  <si>
+    <t>/ˌmaɪoʊˈkɑːrdiəm/</t>
+  </si>
+  <si>
+    <t>my 发音 mai</t>
+  </si>
+  <si>
+    <t>n. 心肌</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <r>
+      <t>/ˌekspɜːrˈt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>iːz/</t>
+    </r>
+  </si>
+  <si>
+    <t>tise 是 ti:z ， 而不是 taiz</t>
+  </si>
+  <si>
+    <t>n. 专长</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>/ˈpɪrəmɪd/</t>
+  </si>
+  <si>
+    <t>n. 锥形，金字塔型</t>
+  </si>
+  <si>
+    <t>subtle</t>
+  </si>
+  <si>
+    <t>b 不发音</t>
+  </si>
+  <si>
+    <t>/ˈsʌt(ə)l/</t>
+  </si>
+  <si>
+    <t>adj. 不易察觉的</t>
+  </si>
+  <si>
+    <t>omniscience</t>
+  </si>
+  <si>
+    <t>/ɑːmˈnɪʃəns/</t>
+  </si>
+  <si>
+    <t>science 作为词尾 ʃəns/</t>
+  </si>
+  <si>
+    <t>n. 先知，全能</t>
+  </si>
+  <si>
+    <t>lettuce</t>
+  </si>
+  <si>
+    <t>tuce  发音 ti:s</t>
+  </si>
+  <si>
+    <t>/ˈletɪs/</t>
+  </si>
+  <si>
+    <t>barred</t>
+  </si>
+  <si>
+    <t>/bɑːrd/</t>
+  </si>
+  <si>
+    <t>re 不单独发音</t>
+  </si>
+  <si>
+    <t>有条纹的，阻碍的</t>
+  </si>
+  <si>
+    <t>rehebilitation</t>
+  </si>
+  <si>
+    <t>h 不发音</t>
+  </si>
+  <si>
+    <t>/ˌriːəˌbɪlɪˈteɪʃn</t>
+  </si>
+  <si>
+    <t>恢复，死灰复燃</t>
   </si>
 </sst>
 </file>
@@ -7204,10 +7305,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7314,91 +7415,105 @@
         <v>638</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E8" s="24" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+    <row r="9" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>1351</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>1257</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>1258</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>1295</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>1296</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>1612</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>1613</v>
       </c>
     </row>
@@ -7645,10 +7760,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7727,6 +7842,20 @@
       </c>
       <c r="D6" s="9" t="s">
         <v>1509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1745</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8204,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8167,6 +8296,17 @@
       </c>
       <c r="D8" s="10" t="s">
         <v>1643</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1736</v>
       </c>
     </row>
   </sheetData>
@@ -8891,7 +9031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -9527,10 +9667,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9775,6 +9915,20 @@
       </c>
       <c r="E29" s="24" t="s">
         <v>1630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1734</v>
       </c>
     </row>
   </sheetData>
@@ -10410,6 +10564,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01711787-A543-CD4C-BD80-9488CE8FC5C6}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="3"/>
+    <col min="2" max="2" width="11.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -14719,10 +14947,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14812,6 +15040,34 @@
       </c>
       <c r="D7" t="s">
         <v>1617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1739</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1741</v>
       </c>
     </row>
   </sheetData>

--- a/单词发音解析.xlsx
+++ b/单词发音解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB8428-C06D-204A-AD0E-0947F87F0ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C7752-1079-FA47-A5B1-9B83ED40B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="500" windowWidth="19760" windowHeight="13480" tabRatio="708" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="500" windowWidth="23080" windowHeight="13480" tabRatio="708" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普遍重音规律" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2621" uniqueCount="2121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="2243">
   <si>
     <t>音标</t>
   </si>
@@ -4298,9 +4298,6 @@
     <t>--clus</t>
   </si>
   <si>
-    <t>close</t>
-  </si>
-  <si>
     <t>/klu:/</t>
   </si>
   <si>
@@ -5946,9 +5943,6 @@
   </si>
   <si>
     <t>/ɪzm/</t>
-  </si>
-  <si>
-    <t>失爆</t>
   </si>
   <si>
     <t>后接不同的任何辅音，半失爆-停顿失爆</t>
@@ -6328,11 +6322,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1.  辅音 + /d、t/+ 辅音  ，且与前面辅音属同一音节
-当 /t/ 或 /d/ 夹在两个辅音之间，且 /t/ 或 /d/ 和前面的辅音属于同一音节时，有时可以省略
-</t>
-  </si>
-  <si>
     <t>lift me -&gt; lif me
 firstly -&gt; firsly
 software -&gt; sofware
@@ -6344,10 +6333,6 @@
 exactly -&gt; exacly</t>
   </si>
   <si>
-    <t>2、/n/ + /d、t/ +后面是元音、半元音或元音性辅音
-(/m/、/n/、/ŋ/、/l/、/r/)时</t>
-  </si>
-  <si>
     <t>internet -&gt; inernet
 center -&gt; cener
 winter -&gt; winer
@@ -6494,13 +6479,7 @@
     <t>autumn，column，hymn(</t>
   </si>
   <si>
-    <t>11. *p+ n/s/t --</t>
-  </si>
-  <si>
     <t>pneumatics(气体力学)，pneu-monia(肺炎);psalm(赞美诗)，pseudonym(笔名)，psychic(精神的，心理的)，psy-chology(心理学);pterodactyl(飞龙目动物)</t>
-  </si>
-  <si>
-    <t>12. -sten和-stle中</t>
   </si>
   <si>
     <t>fasten，hasten;apostle(鼓吹者，倡导者)，castle，whistle</t>
@@ -7269,6 +7248,429 @@
   </si>
   <si>
     <t>n. 吸血鬼</t>
+  </si>
+  <si>
+    <t>--oeu</t>
+  </si>
+  <si>
+    <t>manoeuvre</t>
+  </si>
+  <si>
+    <t>/məˈnuːvər/</t>
+  </si>
+  <si>
+    <t>U:</t>
+  </si>
+  <si>
+    <t>n. 熟练</t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t>/pəˈzeʃn/</t>
+  </si>
+  <si>
+    <t>n.拥有，财产， 个人物品</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  辅音 + /d、t/+ 辅音  ，且与前面辅音属同一音节
+当 /t/ 或 /d/ 夹在两个辅音之间，且 /t/ 或 /d/ 和前面的辅音属于同一音节时，有时可以省略
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">promptly mpt 属于一个音节，所以 t 发音省略
+prompting  mp 属于一个音节 ting属于一个音节，所以t不省略，但是p和t属于爆破失爆，所以p失爆
+</t>
+    </r>
+  </si>
+  <si>
+    <t>2、/n/ + /d、t/ +后面是元音、半元音或元音性辅音
+(/m/、/n/、/ŋ/、/l/、/r/)时， /d t/ 不发音</t>
+  </si>
+  <si>
+    <t>--ch--</t>
+  </si>
+  <si>
+    <t>开头和结尾 /tʃ/</t>
+  </si>
+  <si>
+    <t>‘-sch</t>
+  </si>
+  <si>
+    <t>/sk/</t>
+  </si>
+  <si>
+    <t>chr</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a+辅尾</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/æ/ </t>
+  </si>
+  <si>
+    <t>cat, fat</t>
+  </si>
+  <si>
+    <t>a+ 辅 +e</t>
+  </si>
+  <si>
+    <t>/ei/</t>
+  </si>
+  <si>
+    <t>w+a</t>
+  </si>
+  <si>
+    <t>/ɔː//ɒ/</t>
+  </si>
+  <si>
+    <t>water watch</t>
+  </si>
+  <si>
+    <t>a+  s/f/th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/a:/ /æ/ </t>
+  </si>
+  <si>
+    <t>ask, after</t>
+  </si>
+  <si>
+    <t>弱读音节</t>
+  </si>
+  <si>
+    <t>ago, about</t>
+  </si>
+  <si>
+    <t>--ge$</t>
+  </si>
+  <si>
+    <t>/ɪ/</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>少量</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>/eə/ /e/</t>
+  </si>
+  <si>
+    <t>11. *p+ n/s/t --  p不发音</t>
+  </si>
+  <si>
+    <t>12. -sten和-stle中  t不发音</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>/θroʊ/</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>/sei/</t>
+  </si>
+  <si>
+    <t>says</t>
+  </si>
+  <si>
+    <t>/sez/</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>/sed/</t>
+  </si>
+  <si>
+    <t>ious，</t>
+  </si>
+  <si>
+    <t>iəs</t>
+  </si>
+  <si>
+    <t>发yes的音</t>
+  </si>
+  <si>
+    <t>obvious</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>/ˈɑːbviəs/ --/ˈɑːbv-yes</t>
+  </si>
+  <si>
+    <t>/ˈsɪriəs/ --/ˈsɪr - yes、</t>
+  </si>
+  <si>
+    <t>/ɒ/ /ɑː/ /ɔː/  英美音发音区别</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /ɒ/  </t>
+  </si>
+  <si>
+    <t>英音</t>
+  </si>
+  <si>
+    <t>美音</t>
+  </si>
+  <si>
+    <t>美音发 /ɑː/</t>
+  </si>
+  <si>
+    <r>
+      <t>主要是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>英音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发音，发 /ɔ/ 的音</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">/ɔː/ </t>
+  </si>
+  <si>
+    <t>hot on</t>
+  </si>
+  <si>
+    <t>英音 发 圆口型 /ɔː/--  近似or的发音</t>
+  </si>
+  <si>
+    <t>情况1 后面没有r， 美音发 /ɑ:/ 的音</t>
+  </si>
+  <si>
+    <t>情况2 后面有r  美音发 /ɔ:r/, 本音</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>/ɑː/</t>
+  </si>
+  <si>
+    <t>长大口型，发 ’啊'</t>
+  </si>
+  <si>
+    <t>喉咙发音 '啊’</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>barn</t>
+  </si>
+  <si>
+    <t>美音基本相同，后有r时，发 /ɑː/</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>/ˈkʌbərd</t>
+  </si>
+  <si>
+    <t>p+b p不发音， board  变成bər</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>/ˈkɑːnʃəns/</t>
+  </si>
+  <si>
+    <t>sci 在词中发 ʃ  ， 不发s</t>
+  </si>
+  <si>
+    <t>conscious</t>
+  </si>
+  <si>
+    <t>/ˈkɑːnʃəs/</t>
+  </si>
+  <si>
+    <t>n. 良知，内疚</t>
+  </si>
+  <si>
+    <t>adj 意识到的， 有知觉的</t>
+  </si>
+  <si>
+    <t>/ˈkɑːnʃi --enʃəs/</t>
+  </si>
+  <si>
+    <t>sci , ti 都发 ʃ 的发音</t>
+  </si>
+  <si>
+    <t>adj 认真的，凭良心的</t>
+  </si>
+  <si>
+    <t>seize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/si:z/ </t>
+  </si>
+  <si>
+    <t>抓住， 夺取</t>
+  </si>
+  <si>
+    <t>tho  ，rough  两个音节发音</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demo'cratic </t>
+  </si>
+  <si>
+    <t>民主的</t>
+  </si>
+  <si>
+    <t>de'mocracy</t>
+  </si>
+  <si>
+    <t>n. 民主精神</t>
+  </si>
+  <si>
+    <t>ˌdeməˈkrætɪk/</t>
+  </si>
+  <si>
+    <t>重音在tic 前一个</t>
+  </si>
+  <si>
+    <t>源于close</t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>klɔːθ/</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>/ˈkloʊðɪŋ/</t>
+  </si>
+  <si>
+    <t>注意元音的区别</t>
+  </si>
+  <si>
+    <t>--tise</t>
+  </si>
+  <si>
+    <t>ti:z</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>ˈspɪrɪt/</t>
+  </si>
+  <si>
+    <t>精神，心灵</t>
+  </si>
+  <si>
+    <t>inspiring</t>
+  </si>
+  <si>
+    <t>/ɪnˈspaɪərɪŋ/</t>
+  </si>
+  <si>
+    <t>spire</t>
+  </si>
+  <si>
+    <t>/ɪnˈspaɪər/</t>
+  </si>
+  <si>
+    <t>激励，鼓舞</t>
+  </si>
+  <si>
+    <t>注意开音节，闭音节单词</t>
+  </si>
+  <si>
+    <t>/aiz/</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>unwind</t>
+  </si>
+  <si>
+    <t>/wind/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/waind/ </t>
+  </si>
+  <si>
+    <t>注意两个i的发音</t>
+  </si>
+  <si>
+    <t>完全失爆</t>
+  </si>
+  <si>
+    <t>不完全失爆，保留口型</t>
+  </si>
+  <si>
+    <t>twentieth</t>
+  </si>
+  <si>
+    <t>/ˈtwentiəθ/</t>
+  </si>
+  <si>
+    <t>1. n+t t被击穿省略
+2. ie +th 前的ie不可省略 一定有 ie的音</t>
+  </si>
+  <si>
+    <t>任何元音尾音是/ɪ/ + l --&gt; / jl/ ~= /iəl/</t>
+  </si>
+  <si>
+    <t>--se</t>
+  </si>
+  <si>
+    <t>’--z</t>
+  </si>
+  <si>
+    <t>辅+se</t>
+  </si>
+  <si>
+    <t>--s</t>
+  </si>
+  <si>
+    <t>元+se 且为重读音节</t>
   </si>
 </sst>
 </file>
@@ -7403,7 +7805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -7499,27 +7901,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7541,9 +7922,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8019,7 +8420,7 @@
       <c r="B35" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="46" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8027,109 +8428,109 @@
       <c r="B36" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="C36" s="35"/>
+      <c r="C36" s="46"/>
     </row>
     <row r="37" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="C37" s="35"/>
+      <c r="C37" s="46"/>
     </row>
     <row r="38" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C38" s="35"/>
+      <c r="C38" s="46"/>
     </row>
     <row r="39" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="C39" s="35"/>
+      <c r="C39" s="46"/>
     </row>
     <row r="40" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C40" s="35"/>
+      <c r="C40" s="46"/>
     </row>
     <row r="41" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="35"/>
+      <c r="C41" s="46"/>
     </row>
     <row r="42" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C42" s="35"/>
+      <c r="C42" s="46"/>
     </row>
     <row r="43" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="C43" s="35"/>
+      <c r="C43" s="46"/>
     </row>
     <row r="44" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="C44" s="35"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="C45" s="35"/>
+      <c r="C45" s="46"/>
     </row>
     <row r="46" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="C46" s="35"/>
+      <c r="C46" s="46"/>
     </row>
     <row r="47" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="C47" s="35"/>
+      <c r="C47" s="46"/>
     </row>
     <row r="48" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="C48" s="35"/>
+      <c r="C48" s="46"/>
     </row>
     <row r="49" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="C49" s="35"/>
+      <c r="C49" s="46"/>
     </row>
     <row r="50" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C50" s="35"/>
+      <c r="C50" s="46"/>
     </row>
     <row r="51" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="C51" s="35"/>
+      <c r="C51" s="46"/>
     </row>
     <row r="52" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="C52" s="35"/>
+      <c r="C52" s="46"/>
     </row>
     <row r="53" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="35"/>
+      <c r="C53" s="46"/>
     </row>
     <row r="54" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="20" t="s">
@@ -8153,7 +8554,7 @@
       <c r="B58" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="47" t="s">
         <v>713</v>
       </c>
     </row>
@@ -8161,7 +8562,7 @@
       <c r="B59" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C59" s="36"/>
+      <c r="C59" s="47"/>
     </row>
     <row r="60" spans="2:3" ht="16" x14ac:dyDescent="0.2">
       <c r="B60" s="20" t="s">
@@ -8485,12 +8886,12 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63:D69"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8628,7 +9029,7 @@
       <c r="C9" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="50" t="s">
         <v>375</v>
       </c>
     </row>
@@ -8639,7 +9040,7 @@
       <c r="C10" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
@@ -8648,7 +9049,7 @@
       <c r="C11" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
@@ -8657,7 +9058,7 @@
       <c r="C12" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
@@ -8754,7 +9155,7 @@
       <c r="C26" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="51" t="s">
         <v>891</v>
       </c>
       <c r="E26" s="9" t="s">
@@ -8768,7 +9169,7 @@
       <c r="C27" s="9" t="s">
         <v>889</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="51"/>
       <c r="E27" s="10" t="s">
         <v>890</v>
       </c>
@@ -8790,63 +9191,63 @@
         <v>1289</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>1291</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>1377</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>1378</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>1401</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>1402</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>1403</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>1404</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>1405</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>1406</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>1407</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="36" spans="2:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="25" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C36" s="26" t="s">
         <v>1417</v>
       </c>
-      <c r="C36" s="26" t="s">
-        <v>1418</v>
-      </c>
       <c r="D36" s="25" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -8854,137 +9255,137 @@
         <v>154</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>1490</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>1492</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>1496</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>1497</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>607</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>1495</v>
-      </c>
       <c r="E42" s="9" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>1502</v>
-      </c>
       <c r="E43" s="9" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="9" t="s">
         <v>1547</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1548</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="D46" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>1571</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>1575</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>1583</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>1646</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8992,13 +9393,13 @@
         <v>681</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>1693</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="D54" s="15" t="s">
         <v>1694</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>1695</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -9006,18 +9407,18 @@
         <v>268</v>
       </c>
       <c r="B55" s="9" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>1696</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="D55" s="15" t="s">
         <v>1697</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>1698</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>1920</v>
+        <v>1914</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>57</v>
@@ -9025,102 +9426,195 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>1921</v>
+        <v>1915</v>
       </c>
       <c r="C58" t="s">
-        <v>1922</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>1923</v>
+        <v>1917</v>
       </c>
       <c r="C59" t="s">
-        <v>1924</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>1925</v>
+        <v>1919</v>
       </c>
       <c r="C60" t="s">
-        <v>1926</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>1942</v>
+        <v>1936</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1943</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>1984</v>
+        <v>1978</v>
       </c>
       <c r="C63" t="s">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="D63"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="C64" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="D64"/>
     </row>
-    <row r="65" spans="2:4" ht="20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>1989</v>
+        <v>1982</v>
+      </c>
+      <c r="C65" s="44" t="s">
+        <v>1983</v>
       </c>
       <c r="D65"/>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>1990</v>
+        <v>1984</v>
       </c>
       <c r="C66" t="s">
-        <v>1991</v>
+        <v>1985</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="D67" t="s">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="C68" t="s">
-        <v>1995</v>
+        <v>1989</v>
       </c>
       <c r="D68"/>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>1996</v>
+        <v>1990</v>
       </c>
       <c r="C69" t="s">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="D69"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="9" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="9" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B79" s="9" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>2190</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>2191</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B80" s="9" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>2196</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>2197</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="9" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B84" s="9" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>2213</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>2214</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9134,10 +9628,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9252,13 +9746,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1345</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>1346</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -9266,79 +9760,79 @@
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>1409</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1410</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>1508</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1519</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>1510</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>1512</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1514</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>1526</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>1528</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -9346,52 +9840,52 @@
         <v>867</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1533</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>1534</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>1603</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1998</v>
+        <v>1992</v>
       </c>
       <c r="C25" t="s">
-        <v>1999</v>
+        <v>1993</v>
       </c>
       <c r="D25"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>2000</v>
+        <v>1994</v>
       </c>
       <c r="C26" t="s">
-        <v>2001</v>
+        <v>1995</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -9399,13 +9893,35 @@
     </row>
     <row r="27" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>2002</v>
+        <v>1996</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>2003</v>
+        <v>1997</v>
       </c>
       <c r="D27" t="s">
-        <v>2004</v>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2207</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>2206</v>
       </c>
     </row>
   </sheetData>
@@ -9415,10 +9931,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D25"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9527,16 +10044,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>1718</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>1720</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -9574,13 +10091,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>1349</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1350</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9604,46 +10121,65 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>1293</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>1294</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>1610</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
-        <v>2006</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="D25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2119</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9740,64 +10276,64 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>1557</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C8" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D8" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>1927</v>
+        <v>1921</v>
       </c>
       <c r="C12" t="s">
-        <v>1928</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="C14" t="s">
-        <v>2010</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C15" t="s">
-        <v>2012</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C16" t="s">
-        <v>2014</v>
+        <v>2008</v>
       </c>
     </row>
   </sheetData>
@@ -9855,7 +10391,7 @@
       <c r="C2" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="47" t="s">
         <v>556</v>
       </c>
     </row>
@@ -9866,7 +10402,7 @@
       <c r="C3" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
@@ -9901,64 +10437,64 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>1686</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>1687</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>1743</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>1745</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1746</v>
-      </c>
       <c r="D13" s="3" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1747</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1929</v>
+        <v>1923</v>
       </c>
       <c r="D16" t="s">
-        <v>1930</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="D17" t="s">
-        <v>1945</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="D19"/>
     </row>
@@ -10047,60 +10583,60 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>1506</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>1739</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>1741</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>1742</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>1750</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>1751</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>1753</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C13" t="s">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D13" t="s">
-        <v>2019</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>
@@ -10112,8 +10648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10166,44 +10702,44 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="D3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D4" t="s">
         <v>1368</v>
       </c>
-      <c r="D4" t="s">
-        <v>1369</v>
-      </c>
       <c r="E4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C5" t="s">
         <v>1585</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1586</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>1587</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -10257,96 +10793,99 @@
       <c r="A14" s="2" t="s">
         <v>1258</v>
       </c>
+      <c r="C14" t="s">
+        <v>2226</v>
+      </c>
       <c r="E14" s="2" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B16" t="s">
         <v>1296</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>1297</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>1298</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C17" t="s">
         <v>1306</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
         <v>1307</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1308</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C18" t="s">
         <v>1309</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>1310</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D21" t="s">
         <v>1707</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>1704</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>2020</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>2021</v>
+        <v>2014</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>2015</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="C24" t="s">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="D24" t="s">
-        <v>2024</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>2025</v>
+        <v>2019</v>
       </c>
       <c r="C25" t="s">
-        <v>2026</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>2027</v>
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -10460,16 +10999,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C2" t="s">
         <v>1373</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F2" t="s">
         <v>1374</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1375</v>
       </c>
     </row>
   </sheetData>
@@ -10527,7 +11066,7 @@
       <c r="C2" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="47" t="s">
         <v>582</v>
       </c>
     </row>
@@ -10535,61 +11074,61 @@
       <c r="C3" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" s="9" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>1592</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>1594</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>1595</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1639</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>1640</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>1732</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1733</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1959</v>
+        <v>1953</v>
       </c>
       <c r="C12" t="s">
-        <v>1960</v>
+        <v>1954</v>
       </c>
     </row>
   </sheetData>
@@ -10604,8 +11143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10733,7 +11272,7 @@
         <v>950</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>956</v>
@@ -10773,7 +11312,7 @@
     <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>998</v>
@@ -10821,60 +11360,60 @@
         <v>1215</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1215</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1263</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>1357</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>1359</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>997</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>183</v>
@@ -10882,16 +11421,16 @@
     </row>
     <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>1486</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>1489</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>1487</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1488</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -10901,13 +11440,13 @@
     </row>
     <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -11032,16 +11571,16 @@
     </row>
     <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>1342</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -11180,16 +11719,16 @@
     </row>
     <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>1482</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="D58" s="5" t="s">
         <v>1484</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -11274,7 +11813,7 @@
         <v>1144</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>1214</v>
@@ -11336,7 +11875,7 @@
         <v>648</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -11344,49 +11883,49 @@
         <v>1181</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>760</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>1313</v>
-      </c>
       <c r="D77" s="5" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>1361</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>1362</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -11517,7 +12056,7 @@
         <v>1125</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -11533,13 +12072,13 @@
     </row>
     <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>996</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -11752,13 +12291,13 @@
     </row>
     <row r="131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>1479</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>1480</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -11931,10 +12470,10 @@
     </row>
     <row r="151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C151" s="5" t="s">
         <v>1471</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -12108,13 +12647,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="D171" s="3" t="s">
         <v>1550</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -12261,16 +12800,16 @@
     </row>
     <row r="188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B188" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="C188" s="5" t="s">
         <v>1607</v>
       </c>
-      <c r="C188" s="5" t="s">
-        <v>1608</v>
-      </c>
       <c r="D188" s="5" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -12541,107 +13080,107 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>1338</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>1398</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1474</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>1476</v>
-      </c>
       <c r="D16" s="3" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>1568</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>1542</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>1543</v>
-      </c>
       <c r="G19" s="32" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1616</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>1617</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>2028</v>
+        <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>2029</v>
+        <v>2023</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>2030</v>
+        <v>2024</v>
       </c>
       <c r="C24" t="s">
-        <v>2031</v>
+        <v>2025</v>
       </c>
       <c r="D24"/>
     </row>
@@ -12692,7 +13231,7 @@
       <c r="C2" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="47" t="s">
         <v>322</v>
       </c>
     </row>
@@ -12703,38 +13242,38 @@
       <c r="C3" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="D3" s="36"/>
+      <c r="D3" s="47"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>1385</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="C7" t="s">
-        <v>1932</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>2032</v>
+        <v>2026</v>
       </c>
       <c r="C8" t="s">
-        <v>2033</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>2034</v>
+        <v>2028</v>
       </c>
       <c r="C9" t="s">
-        <v>2035</v>
+        <v>2029</v>
       </c>
     </row>
   </sheetData>
@@ -12748,10 +13287,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:D20"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12858,92 +13397,122 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>1468</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>1670</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>1671</v>
-      </c>
       <c r="D11" s="9" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D12" s="9" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>1677</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>1678</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>1679</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>1480</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>1946</v>
+        <v>1940</v>
       </c>
       <c r="C16" t="s">
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>2036</v>
+        <v>2030</v>
       </c>
       <c r="C18" t="s">
-        <v>2037</v>
+        <v>2031</v>
       </c>
       <c r="D18"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>2038</v>
+        <v>2032</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>2039</v>
+        <v>2033</v>
       </c>
       <c r="C20" t="s">
-        <v>2040</v>
+        <v>2034</v>
       </c>
       <c r="D20" t="s">
-        <v>2041</v>
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2160</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="s">
+        <v>2163</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>2164</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>2166</v>
       </c>
     </row>
   </sheetData>
@@ -12954,10 +13523,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:D33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13070,27 +13639,27 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1325</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>1351</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1352</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -13098,203 +13667,214 @@
         <v>324</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1394</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>1395</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>1396</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>1463</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>1553</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1563</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>1565</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>1624</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1755</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>1756</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="C22" t="s">
-        <v>2043</v>
+        <v>2037</v>
       </c>
       <c r="D22"/>
     </row>
     <row r="23" spans="2:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>2044</v>
+        <v>2038</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="D24" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>2049</v>
+        <v>2043</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2050</v>
+        <v>2044</v>
       </c>
       <c r="D25"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>2051</v>
+        <v>2045</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="D26"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>2053</v>
+        <v>2047</v>
       </c>
       <c r="C27" t="s">
-        <v>2054</v>
+        <v>2048</v>
       </c>
       <c r="D27"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>2055</v>
+        <v>2049</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>2056</v>
+        <v>2050</v>
       </c>
       <c r="C29" t="s">
-        <v>2057</v>
+        <v>2051</v>
       </c>
       <c r="D29" t="s">
-        <v>2058</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>2059</v>
+        <v>2053</v>
       </c>
       <c r="C30" t="s">
-        <v>2060</v>
+        <v>2054</v>
       </c>
       <c r="D30" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>2062</v>
+        <v>2056</v>
       </c>
       <c r="C31" t="s">
-        <v>2063</v>
+        <v>2057</v>
       </c>
       <c r="D31" t="s">
-        <v>2064</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>2065</v>
+        <v>2059</v>
       </c>
       <c r="C32" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="D32" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>2068</v>
+        <v>2062</v>
       </c>
       <c r="C33" t="s">
-        <v>2069</v>
+        <v>2063</v>
       </c>
       <c r="D33" t="s">
-        <v>2070</v>
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>2122</v>
       </c>
     </row>
   </sheetData>
@@ -13359,27 +13939,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C3" t="s">
         <v>1427</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1428</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B5" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C5" t="s">
         <v>1682</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1683</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1684</v>
       </c>
     </row>
   </sheetData>
@@ -13436,7 +14016,7 @@
       <c r="C2" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="52" t="s">
         <v>176</v>
       </c>
     </row>
@@ -13444,7 +14024,7 @@
       <c r="C3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -13501,73 +14081,73 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1422</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>1423</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1425</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1956</v>
+        <v>1950</v>
       </c>
       <c r="C15" t="s">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="D15" t="s">
-        <v>1958</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>2071</v>
+        <v>2065</v>
       </c>
       <c r="C16" t="s">
-        <v>2072</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>2093</v>
+        <v>2087</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2092</v>
+        <v>2086</v>
       </c>
     </row>
   </sheetData>
@@ -13580,16 +14160,17 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B34" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" style="3"/>
-    <col min="2" max="3" width="12.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.5" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.1640625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9.1640625" style="3"/>
@@ -13725,43 +14306,43 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1333</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1334</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1335</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -13769,26 +14350,26 @@
         <v>959</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1460</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C23" s="33" t="s">
         <v>1657</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>1658</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -13807,110 +14388,197 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>1629</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>1630</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>1627</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>1631</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>1628</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>1731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="3" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>1840</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C36" t="s">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1948</v>
+        <v>1942</v>
       </c>
       <c r="C37" t="s">
-        <v>1949</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C40" t="s">
         <v>2073</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D40" t="s">
         <v>2074</v>
       </c>
-      <c r="D38" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>2076</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>2078</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2080</v>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2223</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" s="3" t="s">
+        <v>2240</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2241</v>
       </c>
     </row>
   </sheetData>
@@ -13921,10 +14589,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:C42"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13932,6 +14600,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -14052,7 +14721,7 @@
       <c r="C11" t="s">
         <v>345</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>350</v>
       </c>
     </row>
@@ -14063,7 +14732,7 @@
       <c r="C12" t="s">
         <v>346</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -14075,6 +14744,9 @@
         <v>347</v>
       </c>
       <c r="D13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E13" t="s">
         <v>348</v>
       </c>
     </row>
@@ -14116,10 +14788,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -14127,133 +14799,177 @@
         <v>1158</v>
       </c>
       <c r="C21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D21" t="s">
         <v>1430</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E24" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C27" t="s">
         <v>1642</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>1643</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1644</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B29" t="s">
         <v>1690</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>1691</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1692</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D32" t="s">
         <v>1709</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C33" t="s">
         <v>1711</v>
       </c>
-      <c r="D32" t="s">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>1712</v>
       </c>
-      <c r="D33" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>1918</v>
+        <v>1912</v>
       </c>
       <c r="C35" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>1934</v>
+        <v>1928</v>
       </c>
       <c r="C37" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>1936</v>
+        <v>1930</v>
       </c>
       <c r="C38" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>1950</v>
+        <v>1944</v>
       </c>
       <c r="C39" t="s">
-        <v>1951</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>1952</v>
+        <v>2215</v>
       </c>
       <c r="C40" t="s">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1955</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>2081</v>
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>1946</v>
       </c>
       <c r="C42" t="s">
-        <v>2082</v>
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>2236</v>
       </c>
     </row>
   </sheetData>
@@ -14303,19 +15019,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B2" t="s">
         <v>1699</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>1700</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1701</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>1702</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1703</v>
       </c>
     </row>
   </sheetData>
@@ -14379,54 +15095,54 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C5" t="s">
         <v>1633</v>
       </c>
-      <c r="C5" t="s">
-        <v>1634</v>
-      </c>
       <c r="D5" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C6" t="s">
         <v>1635</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1636</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1637</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>2083</v>
+        <v>2077</v>
       </c>
       <c r="C8" t="s">
-        <v>2084</v>
+        <v>2078</v>
       </c>
       <c r="D8" t="s">
-        <v>2085</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>2086</v>
+        <v>2080</v>
       </c>
       <c r="C9" t="s">
-        <v>2087</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>2088</v>
+        <v>2082</v>
       </c>
       <c r="C10" t="s">
-        <v>2089</v>
+        <v>2083</v>
       </c>
       <c r="D10" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
     </row>
   </sheetData>
@@ -14812,7 +15528,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>798</v>
@@ -14823,13 +15539,13 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>1456</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="3" t="s">
         <v>1457</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -14908,7 +15624,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="48" t="s">
         <v>594</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -14919,7 +15635,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="3" t="s">
         <v>595</v>
       </c>
@@ -15479,13 +16195,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>1549</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>1550</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -15931,13 +16647,13 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>1673</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>1674</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -16233,10 +16949,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B222" s="3" t="s">
         <v>1661</v>
-      </c>
-      <c r="B222" s="3" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -16252,10 +16968,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B224" s="3" t="s">
         <v>1663</v>
-      </c>
-      <c r="B224" s="3" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -16477,15 +17193,15 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16527,6 +17243,25 @@
       </c>
       <c r="E2" t="s">
         <v>742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2231</v>
       </c>
     </row>
   </sheetData>
@@ -16580,27 +17315,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1714</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1715</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1716</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>1723</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1724</v>
       </c>
     </row>
   </sheetData>
@@ -16735,7 +17470,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="49" t="s">
         <v>941</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -16743,19 +17478,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="37"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="3" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="37"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="3" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="37"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="3" t="s">
         <v>946</v>
       </c>
@@ -16790,10 +17525,10 @@
         <v>681</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -16804,10 +17539,10 @@
         <v>981</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -16818,10 +17553,10 @@
         <v>1047</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>1654</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1655</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -16832,7 +17567,7 @@
         <v>1157</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -16840,10 +17575,10 @@
         <v>385</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -16876,7 +17611,7 @@
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="18" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
@@ -16884,7 +17619,7 @@
         <v>180</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -16984,7 +17719,7 @@
         <v>1019</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="69" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -17005,16 +17740,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
@@ -17022,482 +17757,482 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B1" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="B2" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="B3" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="C3" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="B4" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B5" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="B7" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D9" t="s">
         <v>1806</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D10" t="s">
         <v>1807</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1785</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>1787</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="20" spans="1:3" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>1810</v>
       </c>
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C19" s="5" t="s">
+    <row r="22" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="C23" s="5" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
+    <row r="25" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="C25" s="5" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B21" s="3" t="s">
-        <v>1777</v>
-      </c>
-      <c r="C21" s="5" t="s">
+    <row r="26" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C27" s="30" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="38" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
+    <row r="30" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B30" s="39" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C30" s="40" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>1783</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C26" s="30" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B29" s="46" t="s">
+    <row r="31" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B31" s="39" t="s">
         <v>1822</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C31" s="40" t="s">
         <v>1821</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="9" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="B30" s="46" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="9" t="s">
-        <v>1825</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B34" s="10" t="s">
         <v>1828</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+    <row r="35" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>1830</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="C36" t="s">
         <v>1831</v>
       </c>
-      <c r="B35" s="9" t="s">
+    </row>
+    <row r="37" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="B37" s="9" t="s">
         <v>1832</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" s="10" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="B36" s="9" t="s">
+    <row r="38" spans="1:5" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>1834</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
-        <v>1837</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="48" t="s">
-        <v>1871</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1849</v>
-      </c>
-      <c r="C38" s="9"/>
-    </row>
-    <row r="39" spans="1:5" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10" t="s">
+    </row>
+    <row r="39" spans="1:5" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>1847</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>1848</v>
-      </c>
+      <c r="C39" s="9"/>
     </row>
     <row r="40" spans="1:5" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="10" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>1851</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="10" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1853</v>
+        <v>1849</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10" t="s">
-        <v>1845</v>
+        <v>1850</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="49" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="42" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="B46" s="30" t="s">
         <v>1854</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>1855</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
+    <row r="47" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B47" s="30" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>1856</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B48" s="30" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>1859</v>
       </c>
-      <c r="C46" s="9" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="s">
+    </row>
+    <row r="50" spans="1:3" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+      <c r="A50" s="43" t="s">
         <v>1860</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="B50" s="10" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B51" s="10" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" s="9" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A49" s="50" t="s">
+      <c r="C51" s="9" t="s">
         <v>1862</v>
       </c>
-      <c r="B49" s="10" t="s">
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
+      <c r="A53" s="37" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>1866</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B50" s="10" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" s="3" customFormat="1" ht="144" x14ac:dyDescent="0.2">
-      <c r="A52" s="44" t="s">
-        <v>1886</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B53" s="5" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B54" s="5" t="s">
-        <v>1888</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>1887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="3" t="s">
-        <v>1889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B56" s="5" t="s">
-        <v>1904</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>1903</v>
+    </row>
+    <row r="55" spans="1:3" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="3" t="s">
+        <v>1885</v>
       </c>
     </row>
     <row r="57" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B57" s="5" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="3" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>1892</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>1890</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="3" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B60" s="5" t="s">
-        <v>1897</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1896</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>1898</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>1895</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>1900</v>
+        <v>1894</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1899</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>1907</v>
+        <v>1896</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>1905</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>1909</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1912</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
-        <v>1913</v>
+        <v>1907</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1914</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="3" t="s">
-        <v>1915</v>
+        <v>2150</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1910</v>
+      </c>
+    </row>
     <row r="70" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="44" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="B72" s="5" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1885</v>
+    <row r="71" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:3" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="37" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1870</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B73" s="5" t="s">
-        <v>1883</v>
+        <v>1876</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>1881</v>
@@ -17505,234 +18240,328 @@
     </row>
     <row r="74" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B74" s="5" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" s="3" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
-        <v>1879</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>1760</v>
+        <v>1878</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="3" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>1875</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" s="42" t="s">
+      <c r="B82" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B84" s="35" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B85" s="35" t="s">
         <v>1789</v>
       </c>
-      <c r="C83" s="43" t="s">
+      <c r="C85" s="36" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B84" s="42" t="s">
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B86" s="35" t="s">
         <v>1791</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C86" s="36" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B85" s="42" t="s">
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B87" s="35" t="s">
         <v>1793</v>
       </c>
-      <c r="C85" s="43" t="s">
+      <c r="C87" s="36" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B86" s="42" t="s">
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B88" s="35" t="s">
         <v>1795</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C88" s="36" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B87" s="42" t="s">
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B89" s="35" t="s">
         <v>1797</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C89" s="36" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B88" s="42" t="s">
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B90" s="35" t="s">
         <v>1799</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C90" s="36" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B89" s="42" t="s">
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B91" s="35" t="s">
         <v>1801</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C91" s="36" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="42" t="s">
-        <v>1803</v>
-      </c>
-      <c r="C90" s="43" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="42"/>
-      <c r="C91" s="43"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1414</v>
-      </c>
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1158</v>
+        <v>1410</v>
       </c>
       <c r="C93" t="s">
-        <v>1917</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1431</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B94" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B99" t="s">
         <v>1432</v>
       </c>
-      <c r="B98" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
+      <c r="C100" t="s">
         <v>1434</v>
       </c>
-      <c r="C99" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B102" t="s">
         <v>1427</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C102" t="s">
         <v>1428</v>
       </c>
-      <c r="C101" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C104" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B105" s="3" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1450</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+      <c r="B112" t="s">
         <v>1453</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C112" s="30" t="s">
         <v>1454</v>
       </c>
-      <c r="C111" s="30" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C115" t="s">
         <v>1668</v>
       </c>
-      <c r="C114" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C116" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+      <c r="C117" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>1471</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>1472</v>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B121" t="s">
+        <v>2172</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B123" t="s">
+        <v>2175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B127" t="s">
+        <v>2181</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>869</v>
+      </c>
+      <c r="B129" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>2183</v>
       </c>
     </row>
   </sheetData>
@@ -17811,7 +18640,7 @@
         <v>332</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
@@ -17829,7 +18658,7 @@
     </row>
     <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>291</v>
@@ -17873,34 +18702,34 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="B29" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="B30" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="B31" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="B32" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17935,7 +18764,7 @@
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="10" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -17962,7 +18791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E6613A-B6DC-1A40-9B6C-B1C6AC3A5DD8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -17973,112 +18802,112 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>2117</v>
+        <v>2111</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>2118</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>2116</v>
+        <v>2110</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>2109</v>
+        <v>2103</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>2110</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>2108</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>2102</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>2113</v>
+        <v>2107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>2114</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>2103</v>
+        <v>2097</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>2104</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>2105</v>
+        <v>2099</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>2099</v>
+        <v>2093</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>2100</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>2098</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>2115</v>
+        <v>2109</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
     </row>
   </sheetData>
@@ -18091,10 +18920,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18255,182 +19085,259 @@
     </row>
     <row r="14" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>1321</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="D14" s="29" t="s">
         <v>1322</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>1390</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="D16" s="29" t="s">
         <v>1391</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C18" t="s">
         <v>1520</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>1521</v>
       </c>
-      <c r="D18" t="s">
-        <v>1522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B34" t="s">
         <v>1243</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E34" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B35" t="s">
         <v>1296</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C35" t="s">
         <v>1297</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E35" t="s">
         <v>1298</v>
       </c>
-      <c r="E24" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C36" t="s">
         <v>1304</v>
       </c>
-      <c r="C25" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="E26" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C40" t="s">
         <v>1597</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D40" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E40" t="s">
         <v>1598</v>
       </c>
-      <c r="D29" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F40" t="s">
         <v>1599</v>
       </c>
-      <c r="F29" t="s">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D42" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1622</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D32" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>1939</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1932</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>799</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C46" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>1959</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>1961</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C49" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+      <c r="D49" t="s">
         <v>1963</v>
       </c>
-      <c r="C36" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="C50" t="s">
         <v>1965</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D50" t="s">
         <v>1966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1971</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1972</v>
       </c>
     </row>
   </sheetData>
@@ -18513,52 +19420,52 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C6" t="s">
         <v>1577</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1578</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>1579</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C7" t="s">
         <v>1613</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1614</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>1725</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="D9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E9" t="s">
         <v>1726</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1891</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>1755</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>1756</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1757</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -18568,57 +19475,57 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C12" t="s">
         <v>1735</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>1736</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>1737</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1738</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1973</v>
+        <v>1967</v>
       </c>
       <c r="C14" t="s">
-        <v>1974</v>
+        <v>1968</v>
       </c>
       <c r="D14" t="s">
-        <v>1975</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="C15" t="s">
-        <v>1977</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="C16" t="s">
-        <v>1983</v>
+        <v>1977</v>
       </c>
       <c r="D16" t="s">
-        <v>1981</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>1982</v>
+        <v>1972</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1976</v>
       </c>
       <c r="D17" t="s">
-        <v>1980</v>
+        <v>1974</v>
       </c>
     </row>
   </sheetData>

--- a/单词发音解析.xlsx
+++ b/单词发音解析.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RR/Documents/GitHub/EnglishSummary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rr/github_repo/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02C7752-1079-FA47-A5B1-9B83ED40B512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9B6B6-5018-3C48-9BA2-91AF81114125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="500" windowWidth="23080" windowHeight="13480" tabRatio="708" firstSheet="15" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="1640" windowWidth="23080" windowHeight="13480" tabRatio="708" firstSheet="14" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普遍重音规律" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="2243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="2250">
   <si>
     <t>音标</t>
   </si>
@@ -7658,9 +7658,6 @@
     <t>任何元音尾音是/ɪ/ + l --&gt; / jl/ ~= /iəl/</t>
   </si>
   <si>
-    <t>--se</t>
-  </si>
-  <si>
     <t>’--z</t>
   </si>
   <si>
@@ -7671,6 +7668,30 @@
   </si>
   <si>
     <t>元+se 且为重读音节</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>ˈboʊnəs/</t>
+  </si>
+  <si>
+    <t>注意o的发音</t>
+  </si>
+  <si>
+    <t>emigrant</t>
+  </si>
+  <si>
+    <t>/ˈemɪɡrənt/</t>
+  </si>
+  <si>
+    <t>注意e的发音</t>
+  </si>
+  <si>
+    <t>causes    /kɔːziz/</t>
+  </si>
+  <si>
+    <t>--se / s</t>
   </si>
 </sst>
 </file>
@@ -9931,11 +9952,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10179,6 +10200,17 @@
       </c>
       <c r="D28" s="3" t="s">
         <v>2119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="3" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>2247</v>
       </c>
     </row>
   </sheetData>
@@ -14162,8 +14194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B34" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14564,21 +14596,24 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>2238</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>2239</v>
+      <c r="D52" s="3" t="s">
+        <v>2248</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>2240</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>2241</v>
       </c>
     </row>
   </sheetData>
@@ -14591,8 +14626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17742,8 +17777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19348,10 +19383,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19528,6 +19563,17 @@
         <v>1974</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2244</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/单词发音解析.xlsx
+++ b/单词发音解析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rr/github_repo/EnglishSummary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9B6B6-5018-3C48-9BA2-91AF81114125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02532E57-E0DD-CF41-94E9-FC21EE52FD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="1640" windowWidth="23080" windowHeight="13480" tabRatio="708" firstSheet="14" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="1440" windowWidth="23100" windowHeight="13480" tabRatio="708" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="普遍重音规律" sheetId="8" r:id="rId1"/>
@@ -20,30 +20,31 @@
     <sheet name="特殊音变" sheetId="32" r:id="rId5"/>
     <sheet name="词间连读" sheetId="10" r:id="rId6"/>
     <sheet name="听不出单词" sheetId="36" r:id="rId7"/>
-    <sheet name="A" sheetId="1" r:id="rId8"/>
-    <sheet name="B" sheetId="2" r:id="rId9"/>
-    <sheet name="C" sheetId="11" r:id="rId10"/>
-    <sheet name="D" sheetId="3" r:id="rId11"/>
-    <sheet name="E" sheetId="14" r:id="rId12"/>
-    <sheet name="F" sheetId="15" r:id="rId13"/>
-    <sheet name="G" sheetId="24" r:id="rId14"/>
-    <sheet name="H" sheetId="23" r:id="rId15"/>
-    <sheet name="I" sheetId="22" r:id="rId16"/>
-    <sheet name="J" sheetId="27" r:id="rId17"/>
-    <sheet name="K" sheetId="31" r:id="rId18"/>
-    <sheet name="L" sheetId="25" r:id="rId19"/>
-    <sheet name="M" sheetId="9" r:id="rId20"/>
-    <sheet name="N" sheetId="17" r:id="rId21"/>
-    <sheet name="O" sheetId="12" r:id="rId22"/>
-    <sheet name="P" sheetId="18" r:id="rId23"/>
-    <sheet name="Q" sheetId="28" r:id="rId24"/>
-    <sheet name="R" sheetId="16" r:id="rId25"/>
-    <sheet name="S" sheetId="7" r:id="rId26"/>
-    <sheet name="T" sheetId="5" r:id="rId27"/>
-    <sheet name="U" sheetId="33" r:id="rId28"/>
-    <sheet name="V" sheetId="13" r:id="rId29"/>
-    <sheet name="W" sheetId="26" r:id="rId30"/>
-    <sheet name="Y" sheetId="35" r:id="rId31"/>
+    <sheet name="常见易发错" sheetId="37" r:id="rId8"/>
+    <sheet name="A" sheetId="1" r:id="rId9"/>
+    <sheet name="B" sheetId="2" r:id="rId10"/>
+    <sheet name="C" sheetId="11" r:id="rId11"/>
+    <sheet name="D" sheetId="3" r:id="rId12"/>
+    <sheet name="E" sheetId="14" r:id="rId13"/>
+    <sheet name="F" sheetId="15" r:id="rId14"/>
+    <sheet name="G" sheetId="24" r:id="rId15"/>
+    <sheet name="H" sheetId="23" r:id="rId16"/>
+    <sheet name="I" sheetId="22" r:id="rId17"/>
+    <sheet name="J" sheetId="27" r:id="rId18"/>
+    <sheet name="K" sheetId="31" r:id="rId19"/>
+    <sheet name="L" sheetId="25" r:id="rId20"/>
+    <sheet name="M" sheetId="9" r:id="rId21"/>
+    <sheet name="N" sheetId="17" r:id="rId22"/>
+    <sheet name="O" sheetId="12" r:id="rId23"/>
+    <sheet name="P" sheetId="18" r:id="rId24"/>
+    <sheet name="Q" sheetId="28" r:id="rId25"/>
+    <sheet name="R" sheetId="16" r:id="rId26"/>
+    <sheet name="S" sheetId="7" r:id="rId27"/>
+    <sheet name="T" sheetId="5" r:id="rId28"/>
+    <sheet name="U" sheetId="33" r:id="rId29"/>
+    <sheet name="V" sheetId="13" r:id="rId30"/>
+    <sheet name="W" sheetId="26" r:id="rId31"/>
+    <sheet name="Y" sheetId="35" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="2250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="2279">
   <si>
     <t>音标</t>
   </si>
@@ -7667,9 +7668,6 @@
     <t>--s</t>
   </si>
   <si>
-    <t>元+se 且为重读音节</t>
-  </si>
-  <si>
     <t>bonus</t>
   </si>
   <si>
@@ -7692,6 +7690,136 @@
   </si>
   <si>
     <t>--se / s</t>
+  </si>
+  <si>
+    <t>‘--or</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>/wɜːrk/</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>/triːz/</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>/ˈprɑːdʌ(k)t/</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>/əbˈzɔːrb/</t>
+  </si>
+  <si>
+    <t>par’ticular</t>
+  </si>
+  <si>
+    <t>元+se 且为重读音节、 er+s</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <r>
+      <t>/kəmˈpærɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>sn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>对比</t>
+  </si>
+  <si>
+    <t>---sion</t>
+  </si>
+  <si>
+    <t>ʒɜn</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>/ɪmˈpɔːr (t)(ə)nt/</t>
+  </si>
+  <si>
+    <t>expression</t>
+  </si>
+  <si>
+    <t>exbression</t>
+  </si>
+  <si>
+    <t>written</t>
+  </si>
+  <si>
+    <t>/ˈrɪt(ə)n/</t>
+  </si>
+  <si>
+    <r>
+      <t>/ˌ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>æ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kəˈdemɪk/</t>
+    </r>
+  </si>
+  <si>
+    <t>academic</t>
+  </si>
+  <si>
+    <t>/ˈɪndəstri/</t>
+  </si>
+  <si>
+    <t>colony</t>
+  </si>
+  <si>
+    <t>/ˈkɑːləni/</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>/ˈɑːbdʒekt/</t>
   </si>
 </sst>
 </file>
@@ -8906,6 +9034,204 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1735</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>1967</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2242</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
@@ -9647,7 +9973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -9950,7 +10276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
@@ -10204,13 +10530,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
+        <v>2244</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>2245</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>2246</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>2247</v>
       </c>
     </row>
   </sheetData>
@@ -10218,7 +10544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -10373,7 +10699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -10538,7 +10864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -10676,7 +11002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
@@ -10925,7 +11251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10988,7 +11314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -11044,129 +11370,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.1640625" style="9"/>
-    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D2" s="47" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C3" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="D3" s="47"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>1592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>1594</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>1732</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>1953</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1954</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D2:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12961,6 +13164,129 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" style="9"/>
+    <col min="2" max="2" width="13.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:D3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -13222,7 +13548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -13317,12 +13643,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B27" sqref="B27:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13547,13 +13873,32 @@
         <v>2166</v>
       </c>
     </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
@@ -13914,7 +14259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -13999,7 +14344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -14190,12 +14535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14596,16 +14941,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2241</v>
+        <v>2260</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>2238</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -14622,7 +14967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
@@ -15013,7 +15358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D136FC-C914-D441-87B5-9A5195970599}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -15071,118 +15416,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="71.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1637</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>2080</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>2082</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2083</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2084</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17227,6 +17460,118 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="71.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -17304,7 +17649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01711787-A543-CD4C-BD80-9488CE8FC5C6}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -17777,7 +18122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -18954,6 +19299,135 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5FF9F3-56C9-3748-85E0-50DFD7DC9EB7}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2257</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2263</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H50"/>
   <sheetViews>
@@ -19379,202 +19853,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="28" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>357</v>
-      </c>
-      <c r="H1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>671</v>
-      </c>
-      <c r="C3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1576</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1577</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1578</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>1612</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1613</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>1724</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>1725</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1887</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1735</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1736</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1968</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>1970</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1971</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1977</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>1972</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1976</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2243</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2244</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>